--- a/MiseAJour_RessourcesCDA-Tests/ig/all-profiles.xlsx
+++ b/MiseAJour_RessourcesCDA-Tests/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T11:07:38+00:00</t>
+    <t>2025-01-27T11:19:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_RessourcesCDA-Tests/ig/all-profiles.xlsx
+++ b/MiseAJour_RessourcesCDA-Tests/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T11:19:58+00:00</t>
+    <t>2025-02-05T15:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_RessourcesCDA-Tests/ig/all-profiles.xlsx
+++ b/MiseAJour_RessourcesCDA-Tests/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-05T15:48:44+00:00</t>
+    <t>2025-02-06T10:41:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MiseAJour_RessourcesCDA-Tests/ig/all-profiles.xlsx
+++ b/MiseAJour_RessourcesCDA-Tests/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T10:41:20+00:00</t>
+    <t>2025-02-06T10:47:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
